--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="64">
   <si>
     <t>NAME</t>
   </si>
@@ -207,7 +207,13 @@
     <t>Rosales</t>
   </si>
   <si>
-    <t>C:\Users\ACT-STUDENT\Desktop\EVDRVv2\EVDRV\bin\Debug\SavedPhoto\Kayne.png</t>
+    <t>C:\Users\ACT-STUDENT\Source\Repos\Event-Driven-Programming---CRUD\EVDRV\bin\Debug\SavedPhoto\Kayne.png</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>Remove Sam in active list</t>
   </si>
 </sst>
 </file>
@@ -262,7 +268,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="301">
+  <cellStyleXfs count="1869">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment/>
       <protection/>
@@ -566,11 +572,1579 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="300"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1868"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -583,7 +2157,7 @@
     <cellStyle name="Currency [0]" xfId="17"/>
     <cellStyle name="Comma" xfId="18"/>
     <cellStyle name="Comma [0]" xfId="19"/>
-    <cellStyle name="Hyperlink" xfId="300"/>
+    <cellStyle name="Hyperlink" xfId="1868"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1144,7 +2718,7 @@
     </row>
     <row r="5" spans="1:12" ht="15.75">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
@@ -1174,7 +2748,7 @@
         <v>60</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" t="s">
         <v>61</v>
@@ -1303,7 +2877,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A536246-8034-4587-8BBA-7487EF9B1490}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection activeCell="A2" sqref="A2"/>
@@ -1819,6 +3393,202 @@
       </c>
       <c r="D36" s="4">
         <v>45776.5901273148</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75">
+      <c r="A37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="5">
+        <v>45782</v>
+      </c>
+      <c r="D37" s="4">
+        <v>45782.3487037037</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75">
+      <c r="A38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="5">
+        <v>45782</v>
+      </c>
+      <c r="D38" s="4">
+        <v>45782.3488425926</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75">
+      <c r="A39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="5">
+        <v>45782</v>
+      </c>
+      <c r="D39" s="4">
+        <v>45782.3490740741</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75">
+      <c r="A40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="5">
+        <v>45782</v>
+      </c>
+      <c r="D40" s="4">
+        <v>45782.350474537</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75">
+      <c r="A41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" s="5">
+        <v>45782</v>
+      </c>
+      <c r="D41" s="4">
+        <v>45782.35125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75">
+      <c r="A42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="5">
+        <v>45782</v>
+      </c>
+      <c r="D42" s="4">
+        <v>45782.3514351852</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75">
+      <c r="A43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="5">
+        <v>45782</v>
+      </c>
+      <c r="D43" s="4">
+        <v>45782.3515393518</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="5">
+        <v>45782</v>
+      </c>
+      <c r="D44" s="4">
+        <v>45782.3516898148</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75">
+      <c r="A45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" s="5">
+        <v>45782</v>
+      </c>
+      <c r="D45" s="4">
+        <v>45782.3566666667</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75">
+      <c r="A46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" s="5">
+        <v>45782</v>
+      </c>
+      <c r="D46" s="4">
+        <v>45782.3617361111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75">
+      <c r="A47" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="5">
+        <v>45782</v>
+      </c>
+      <c r="D47" s="4">
+        <v>45782.3624537037</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.75">
+      <c r="A48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" s="5">
+        <v>45782</v>
+      </c>
+      <c r="D48" s="4">
+        <v>45782.3630208333</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75">
+      <c r="A49" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="5">
+        <v>45782</v>
+      </c>
+      <c r="D49" s="4">
+        <v>45782.3634259259</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75">
+      <c r="A50" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50" s="5">
+        <v>45782</v>
+      </c>
+      <c r="D50" s="4">
+        <v>45782.3649421296</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="64">
   <si>
     <t>NAME</t>
   </si>
@@ -268,7 +268,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1869">
+  <cellStyleXfs count="2653">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment/>
       <protection/>
@@ -2140,11 +2140,795 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1868"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2652"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2157,7 +2941,7 @@
     <cellStyle name="Currency [0]" xfId="17"/>
     <cellStyle name="Comma" xfId="18"/>
     <cellStyle name="Comma [0]" xfId="19"/>
-    <cellStyle name="Hyperlink" xfId="1868"/>
+    <cellStyle name="Hyperlink" xfId="2652"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2877,7 +3661,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A536246-8034-4587-8BBA-7487EF9B1490}">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection activeCell="A2" sqref="A2"/>
@@ -3589,6 +4373,202 @@
       </c>
       <c r="D50" s="4">
         <v>45782.3649421296</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.75">
+      <c r="A51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" s="5">
+        <v>45782</v>
+      </c>
+      <c r="D51" s="4">
+        <v>45782.5562268518</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15.75">
+      <c r="A52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" t="s">
+        <v>40</v>
+      </c>
+      <c r="C52" s="5">
+        <v>45782</v>
+      </c>
+      <c r="D52" s="4">
+        <v>45782.5570601852</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.75">
+      <c r="A53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" s="5">
+        <v>45782</v>
+      </c>
+      <c r="D53" s="4">
+        <v>45782.5573032407</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15.75">
+      <c r="A54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" t="s">
+        <v>40</v>
+      </c>
+      <c r="C54" s="5">
+        <v>45782</v>
+      </c>
+      <c r="D54" s="4">
+        <v>45782.5585763889</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15.75">
+      <c r="A55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" t="s">
+        <v>40</v>
+      </c>
+      <c r="C55" s="5">
+        <v>45782</v>
+      </c>
+      <c r="D55" s="4">
+        <v>45782.5613310185</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.75">
+      <c r="A56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" t="s">
+        <v>40</v>
+      </c>
+      <c r="C56" s="5">
+        <v>45782</v>
+      </c>
+      <c r="D56" s="4">
+        <v>45782.5633796296</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15.75">
+      <c r="A57" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" t="s">
+        <v>40</v>
+      </c>
+      <c r="C57" s="5">
+        <v>45782</v>
+      </c>
+      <c r="D57" s="4">
+        <v>45782.5656134259</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15.75">
+      <c r="A58" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" t="s">
+        <v>40</v>
+      </c>
+      <c r="C58" s="5">
+        <v>45782</v>
+      </c>
+      <c r="D58" s="4">
+        <v>45782.5663657407</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15.75">
+      <c r="A59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" t="s">
+        <v>40</v>
+      </c>
+      <c r="C59" s="5">
+        <v>45782</v>
+      </c>
+      <c r="D59" s="4">
+        <v>45782.5720833333</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15.75">
+      <c r="A60" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" t="s">
+        <v>40</v>
+      </c>
+      <c r="C60" s="5">
+        <v>45782</v>
+      </c>
+      <c r="D60" s="4">
+        <v>45782.5723611111</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15.75">
+      <c r="A61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" t="s">
+        <v>40</v>
+      </c>
+      <c r="C61" s="5">
+        <v>45782</v>
+      </c>
+      <c r="D61" s="4">
+        <v>45782.5727199074</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15.75">
+      <c r="A62" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62" t="s">
+        <v>40</v>
+      </c>
+      <c r="C62" s="5">
+        <v>45782</v>
+      </c>
+      <c r="D62" s="4">
+        <v>45782.5752314815</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15.75">
+      <c r="A63" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" t="s">
+        <v>40</v>
+      </c>
+      <c r="C63" s="5">
+        <v>45782</v>
+      </c>
+      <c r="D63" s="4">
+        <v>45782.5761458333</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15.75">
+      <c r="A64" t="s">
+        <v>14</v>
+      </c>
+      <c r="B64" t="s">
+        <v>40</v>
+      </c>
+      <c r="C64" s="5">
+        <v>45782</v>
+      </c>
+      <c r="D64" s="4">
+        <v>45782.5802662037</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="69">
   <si>
     <t>NAME</t>
   </si>
@@ -105,115 +105,130 @@
     <t>BIRTHDATE</t>
   </si>
   <si>
+    <t>Pink</t>
+  </si>
+  <si>
+    <t>C:\Users\ACT-STUDENT\Desktop\EVDRVv2\EVDRV\bin\Debug\SavedPhoto\Aerain.png</t>
+  </si>
+  <si>
+    <t>BSIT</t>
+  </si>
+  <si>
+    <t>Aerain@gmail.com</t>
+  </si>
+  <si>
+    <t>Allosada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basketball </t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>Aerol@gmail.com</t>
+  </si>
+  <si>
+    <t>Rosales</t>
+  </si>
+  <si>
+    <t>Kayne@gmail.com</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Vaness@gmail.com</t>
+  </si>
+  <si>
+    <t>Has been log in</t>
+  </si>
+  <si>
+    <t>Updating a data</t>
+  </si>
+  <si>
+    <t>Aerain</t>
+  </si>
+  <si>
+    <t>C:\Users\ACT-STUDENT\Source\Repos\Event-Driven-Programming---CRUD\EVDRV\bin\Debug\SavedPhoto\Kayne.png</t>
+  </si>
+  <si>
+    <t>C:\Users\ACT-STUDENT\Desktop\EVDRVv2\EVDRV\bin\Debug\SavedPhoto\Aerol.png</t>
+  </si>
+  <si>
+    <t>C:\Users\ACT-STUDENT\Source\Repos\Event-Driven-Programming---CRUD\EVDRV\bin\Debug\SavedPhoto\Marie.png</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Inserting a data</t>
+  </si>
+  <si>
+    <t>Has been log out</t>
+  </si>
+  <si>
+    <t>Remove Marie in active list</t>
+  </si>
+  <si>
+    <t>Remove Vaness in inactive list</t>
+  </si>
+  <si>
+    <t>Remove Aerain in inactive list</t>
+  </si>
+  <si>
+    <t>Aezues</t>
+  </si>
+  <si>
     <t>C:\Users\ACT-STUDENT\Desktop\EVDRVv2\EVDRV\bin\Debug\SavedPhoto\John.png</t>
   </si>
   <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>Remove Aerol in active list</t>
+  </si>
+  <si>
+    <t>Remove Aerain in active list</t>
+  </si>
+  <si>
+    <t>Kayne</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Aezues@gmail.com</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
     <t>John@gmail.com</t>
   </si>
   <si>
-    <t>BSIT</t>
-  </si>
-  <si>
-    <t>White</t>
-  </si>
-  <si>
-    <t>Allosada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Basketball </t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Pink</t>
-  </si>
-  <si>
-    <t>Aerain@gmail.com</t>
-  </si>
-  <si>
-    <t>Aerol@gmail.com</t>
-  </si>
-  <si>
-    <t>C:\Users\ACT-STUDENT\Desktop\EVDRVv2\EVDRV\bin\Debug\SavedPhoto\Aerain.png</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Vaness@gmail.com</t>
-  </si>
-  <si>
-    <t>Has been log in</t>
-  </si>
-  <si>
-    <t>Updating a data</t>
-  </si>
-  <si>
-    <t>Aerain</t>
-  </si>
-  <si>
-    <t>Yellow</t>
-  </si>
-  <si>
-    <t>C:\Users\ACT-STUDENT\Desktop\EVDRVv2\EVDRV\bin\Debug\SavedPhoto\Aerol.png</t>
-  </si>
-  <si>
-    <t>Vaness@gmailcom</t>
-  </si>
-  <si>
     <t xml:space="preserve">Online-Games Volleyball </t>
   </si>
   <si>
-    <t>Inserting a data</t>
-  </si>
-  <si>
-    <t>Has been log out</t>
-  </si>
-  <si>
-    <t>Remove Marie in active list</t>
-  </si>
-  <si>
-    <t>Remove Vaness in inactive list</t>
-  </si>
-  <si>
-    <t>Remove Aerain in inactive list</t>
-  </si>
-  <si>
-    <t>Aezues</t>
-  </si>
-  <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>Aezues@gmail.com</t>
-  </si>
-  <si>
-    <t>Remove Aerol in active list</t>
-  </si>
-  <si>
-    <t>Remove Aerain in active list</t>
-  </si>
-  <si>
-    <t>Kayne</t>
-  </si>
-  <si>
-    <t>Blue</t>
-  </si>
-  <si>
-    <t>Kayne@gmail.com</t>
-  </si>
-  <si>
-    <t>Rosales</t>
-  </si>
-  <si>
-    <t>C:\Users\ACT-STUDENT\Source\Repos\Event-Driven-Programming---CRUD\EVDRV\bin\Debug\SavedPhoto\Kayne.png</t>
-  </si>
-  <si>
-    <t>Sam</t>
-  </si>
-  <si>
     <t>Remove Sam in active list</t>
+  </si>
+  <si>
+    <t>Remove Aezues in active list</t>
+  </si>
+  <si>
+    <t>Remove John in active list</t>
+  </si>
+  <si>
+    <t>Remove Aezues in inactive list</t>
+  </si>
+  <si>
+    <t>Remove Aerol in inactive list</t>
+  </si>
+  <si>
+    <t>Remove Marie in inactive list</t>
   </si>
 </sst>
 </file>
@@ -268,7 +283,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2653">
+  <cellStyleXfs count="4123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment/>
       <protection/>
@@ -2924,11 +2939,1481 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2652"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4122"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2941,7 +4426,7 @@
     <cellStyle name="Currency [0]" xfId="17"/>
     <cellStyle name="Comma" xfId="18"/>
     <cellStyle name="Comma [0]" xfId="19"/>
-    <cellStyle name="Hyperlink" xfId="2652"/>
+    <cellStyle name="Hyperlink" xfId="4122"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -3429,16 +4914,16 @@
     </row>
     <row r="3" spans="1:12" ht="15.75">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
@@ -3447,13 +4932,13 @@
         <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H3">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="J3" t="s">
         <v>31</v>
@@ -3462,53 +4947,56 @@
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
+      <c r="L4" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="5" spans="1:12" ht="15.75">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
         <v>58</v>
@@ -3523,30 +5011,27 @@
         <v>59</v>
       </c>
       <c r="H5">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="J5" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
-      <c r="L5" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="6" spans="1:12" ht="15.75">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
         <v>34</v>
@@ -3561,10 +5046,10 @@
         <v>35</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="J6" t="s">
         <v>31</v>
@@ -3573,21 +5058,21 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
@@ -3596,13 +5081,13 @@
         <v>29</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="H7">
         <v>20</v>
       </c>
       <c r="I7" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="J7" t="s">
         <v>31</v>
@@ -3611,42 +5096,45 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
         <v>19</v>
       </c>
       <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8">
         <v>20</v>
       </c>
-      <c r="G8" t="s">
-        <v>45</v>
-      </c>
       <c r="I8" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="J8" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -3661,7 +5149,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A536246-8034-4587-8BBA-7487EF9B1490}">
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D85"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection activeCell="A2" sqref="A2"/>
@@ -4569,6 +6057,300 @@
       </c>
       <c r="D64" s="4">
         <v>45782.5802662037</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15.75">
+      <c r="A65" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65" t="s">
+        <v>40</v>
+      </c>
+      <c r="C65" s="5">
+        <v>45782</v>
+      </c>
+      <c r="D65" s="4">
+        <v>45782.5872916667</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15.75">
+      <c r="A66" t="s">
+        <v>14</v>
+      </c>
+      <c r="B66" t="s">
+        <v>64</v>
+      </c>
+      <c r="C66" s="5">
+        <v>45782</v>
+      </c>
+      <c r="D66" s="4">
+        <v>45782.5874421296</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15.75">
+      <c r="A67" t="s">
+        <v>14</v>
+      </c>
+      <c r="B67" t="s">
+        <v>40</v>
+      </c>
+      <c r="C67" s="5">
+        <v>45782</v>
+      </c>
+      <c r="D67" s="4">
+        <v>45782.5959027778</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15.75">
+      <c r="A68" t="s">
+        <v>14</v>
+      </c>
+      <c r="B68" t="s">
+        <v>65</v>
+      </c>
+      <c r="C68" s="5">
+        <v>45782</v>
+      </c>
+      <c r="D68" s="4">
+        <v>45782.5960300926</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15.75">
+      <c r="A69" t="s">
+        <v>14</v>
+      </c>
+      <c r="B69" t="s">
+        <v>66</v>
+      </c>
+      <c r="C69" s="5">
+        <v>45782</v>
+      </c>
+      <c r="D69" s="4">
+        <v>45782.5961921296</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15.75">
+      <c r="A70" t="s">
+        <v>14</v>
+      </c>
+      <c r="B70" t="s">
+        <v>67</v>
+      </c>
+      <c r="C70" s="5">
+        <v>45782</v>
+      </c>
+      <c r="D70" s="4">
+        <v>45782.5962731481</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15.75">
+      <c r="A71" t="s">
+        <v>14</v>
+      </c>
+      <c r="B71" t="s">
+        <v>48</v>
+      </c>
+      <c r="C71" s="5">
+        <v>45782</v>
+      </c>
+      <c r="D71" s="4">
+        <v>45782.5963773148</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15.75">
+      <c r="A72" t="s">
+        <v>14</v>
+      </c>
+      <c r="B72" t="s">
+        <v>40</v>
+      </c>
+      <c r="C72" s="5">
+        <v>45782</v>
+      </c>
+      <c r="D72" s="4">
+        <v>45782.5964583333</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15.75">
+      <c r="A73" t="s">
+        <v>14</v>
+      </c>
+      <c r="B73" t="s">
+        <v>40</v>
+      </c>
+      <c r="C73" s="5">
+        <v>45782</v>
+      </c>
+      <c r="D73" s="4">
+        <v>45782.5992013889</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15.75">
+      <c r="A74" t="s">
+        <v>14</v>
+      </c>
+      <c r="B74" t="s">
+        <v>55</v>
+      </c>
+      <c r="C74" s="5">
+        <v>45782</v>
+      </c>
+      <c r="D74" s="4">
+        <v>45782.5993402778</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15.75">
+      <c r="A75" t="s">
+        <v>14</v>
+      </c>
+      <c r="B75" t="s">
+        <v>40</v>
+      </c>
+      <c r="C75" s="5">
+        <v>45782</v>
+      </c>
+      <c r="D75" s="4">
+        <v>45782.6012847222</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15.75">
+      <c r="A76" t="s">
+        <v>14</v>
+      </c>
+      <c r="B76" t="s">
+        <v>64</v>
+      </c>
+      <c r="C76" s="5">
+        <v>45782</v>
+      </c>
+      <c r="D76" s="4">
+        <v>45782.6014236111</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15.75">
+      <c r="A77" t="s">
+        <v>14</v>
+      </c>
+      <c r="B77" t="s">
+        <v>40</v>
+      </c>
+      <c r="C77" s="5">
+        <v>45782</v>
+      </c>
+      <c r="D77" s="4">
+        <v>45782.6051041667</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15.75">
+      <c r="A78" t="s">
+        <v>14</v>
+      </c>
+      <c r="B78" t="s">
+        <v>51</v>
+      </c>
+      <c r="C78" s="5">
+        <v>45782</v>
+      </c>
+      <c r="D78" s="4">
+        <v>45782.6052546296</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15.75">
+      <c r="A79" t="s">
+        <v>14</v>
+      </c>
+      <c r="B79" t="s">
+        <v>40</v>
+      </c>
+      <c r="C79" s="5">
+        <v>45782</v>
+      </c>
+      <c r="D79" s="4">
+        <v>45782.6056944444</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="15.75">
+      <c r="A80" t="s">
+        <v>14</v>
+      </c>
+      <c r="B80" t="s">
+        <v>40</v>
+      </c>
+      <c r="C80" s="5">
+        <v>45782</v>
+      </c>
+      <c r="D80" s="4">
+        <v>45782.6062962963</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15.75">
+      <c r="A81" t="s">
+        <v>14</v>
+      </c>
+      <c r="B81" t="s">
+        <v>40</v>
+      </c>
+      <c r="C81" s="5">
+        <v>45782</v>
+      </c>
+      <c r="D81" s="4">
+        <v>45782.6078472222</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15.75">
+      <c r="A82" t="s">
+        <v>14</v>
+      </c>
+      <c r="B82" t="s">
+        <v>68</v>
+      </c>
+      <c r="C82" s="5">
+        <v>45782</v>
+      </c>
+      <c r="D82" s="4">
+        <v>45782.6081018519</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="15.75">
+      <c r="A83" t="s">
+        <v>14</v>
+      </c>
+      <c r="B83" t="s">
+        <v>40</v>
+      </c>
+      <c r="C83" s="5">
+        <v>45782</v>
+      </c>
+      <c r="D83" s="4">
+        <v>45782.6084259259</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="15.75">
+      <c r="A84" t="s">
+        <v>14</v>
+      </c>
+      <c r="B84" t="s">
+        <v>40</v>
+      </c>
+      <c r="C84" s="5">
+        <v>45782</v>
+      </c>
+      <c r="D84" s="4">
+        <v>45782.608900463</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="15.75">
+      <c r="A85" t="s">
+        <v>14</v>
+      </c>
+      <c r="B85" t="s">
+        <v>41</v>
+      </c>
+      <c r="C85" s="5">
+        <v>45782</v>
+      </c>
+      <c r="D85" s="4">
+        <v>45782.6095138889</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="69">
   <si>
     <t>NAME</t>
   </si>
@@ -283,7 +283,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4123">
+  <cellStyleXfs count="4263">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment/>
       <protection/>
@@ -4409,11 +4409,151 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4122"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4262"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -4426,7 +4566,7 @@
     <cellStyle name="Currency [0]" xfId="17"/>
     <cellStyle name="Comma" xfId="18"/>
     <cellStyle name="Comma [0]" xfId="19"/>
-    <cellStyle name="Hyperlink" xfId="4122"/>
+    <cellStyle name="Hyperlink" xfId="4262"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -4982,7 +5122,7 @@
         <v>24</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="s">
         <v>45</v>
@@ -5149,7 +5289,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A536246-8034-4587-8BBA-7487EF9B1490}">
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection activeCell="A2" sqref="A2"/>
@@ -6351,6 +6491,34 @@
       </c>
       <c r="D85" s="4">
         <v>45782.6095138889</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="15.75">
+      <c r="A86" t="s">
+        <v>14</v>
+      </c>
+      <c r="B86" t="s">
+        <v>40</v>
+      </c>
+      <c r="C86" s="5">
+        <v>45784</v>
+      </c>
+      <c r="D86" s="4">
+        <v>45784.3484722222</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="15.75">
+      <c r="A87" t="s">
+        <v>14</v>
+      </c>
+      <c r="B87" t="s">
+        <v>49</v>
+      </c>
+      <c r="C87" s="5">
+        <v>45784</v>
+      </c>
+      <c r="D87" s="4">
+        <v>45784.3487847222</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="91">
   <si>
     <t>NAME</t>
   </si>
@@ -108,22 +108,100 @@
     <t>Pink</t>
   </si>
   <si>
+    <t xml:space="preserve">Online-Games Volleyball </t>
+  </si>
+  <si>
+    <t>BSIT</t>
+  </si>
+  <si>
+    <t>Aerain@gmail.com</t>
+  </si>
+  <si>
+    <t>Allosada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basketball </t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>C:\Users\ACT-STUDENT\Desktop\EVDRVv2\EVDRV\bin\Debug\SavedPhoto\John.png</t>
+  </si>
+  <si>
+    <t>Rosales</t>
+  </si>
+  <si>
+    <t>Kayne@gmail.com</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Vaness@gmail.com</t>
+  </si>
+  <si>
+    <t>Has been log in</t>
+  </si>
+  <si>
+    <t>Updating a data</t>
+  </si>
+  <si>
+    <t>Aerain</t>
+  </si>
+  <si>
+    <t>C:\Users\ACT-STUDENT\Source\Repos\Event-Driven-Programming---CRUD\EVDRV\bin\Debug\SavedPhoto\Kayne.png</t>
+  </si>
+  <si>
+    <t>C:\Users\ACT-STUDENT\Desktop\EVDRVv2\EVDRV\bin\Debug\SavedPhoto\Aerol.png</t>
+  </si>
+  <si>
     <t>C:\Users\ACT-STUDENT\Desktop\EVDRVv2\EVDRV\bin\Debug\SavedPhoto\Aerain.png</t>
   </si>
   <si>
-    <t>BSIT</t>
-  </si>
-  <si>
-    <t>Aerain@gmail.com</t>
-  </si>
-  <si>
-    <t>Allosada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Basketball </t>
-  </si>
-  <si>
-    <t>John</t>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Inserting a data</t>
+  </si>
+  <si>
+    <t>Has been log out</t>
+  </si>
+  <si>
+    <t>Remove Marie in active list</t>
+  </si>
+  <si>
+    <t>Remove Vaness in inactive list</t>
+  </si>
+  <si>
+    <t>Remove Aerain in inactive list</t>
+  </si>
+  <si>
+    <t>Aezues</t>
+  </si>
+  <si>
+    <t>Aezues@gmail.com</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>Remove Aerol in active list</t>
+  </si>
+  <si>
+    <t>Remove Aerain in active list</t>
+  </si>
+  <si>
+    <t>Kayne</t>
+  </si>
+  <si>
+    <t>John@gmail.com</t>
+  </si>
+  <si>
+    <t>C:\Users\ACT-STUDENT\Source\Repos\Event-Driven-Programming---CRUD\EVDRV\bin\Debug\SavedPhoto\Marie.png</t>
   </si>
   <si>
     <t>Yellow</t>
@@ -132,87 +210,9 @@
     <t>Aerol@gmail.com</t>
   </si>
   <si>
-    <t>Rosales</t>
-  </si>
-  <si>
-    <t>Kayne@gmail.com</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Vaness@gmail.com</t>
-  </si>
-  <si>
-    <t>Has been log in</t>
-  </si>
-  <si>
-    <t>Updating a data</t>
-  </si>
-  <si>
-    <t>Aerain</t>
-  </si>
-  <si>
-    <t>C:\Users\ACT-STUDENT\Source\Repos\Event-Driven-Programming---CRUD\EVDRV\bin\Debug\SavedPhoto\Kayne.png</t>
-  </si>
-  <si>
-    <t>C:\Users\ACT-STUDENT\Desktop\EVDRVv2\EVDRV\bin\Debug\SavedPhoto\Aerol.png</t>
-  </si>
-  <si>
-    <t>C:\Users\ACT-STUDENT\Source\Repos\Event-Driven-Programming---CRUD\EVDRV\bin\Debug\SavedPhoto\Marie.png</t>
-  </si>
-  <si>
-    <t>Blue</t>
-  </si>
-  <si>
-    <t>Inserting a data</t>
-  </si>
-  <si>
-    <t>Has been log out</t>
-  </si>
-  <si>
-    <t>Remove Marie in active list</t>
-  </si>
-  <si>
-    <t>Remove Vaness in inactive list</t>
-  </si>
-  <si>
-    <t>Remove Aerain in inactive list</t>
-  </si>
-  <si>
-    <t>Aezues</t>
-  </si>
-  <si>
-    <t>C:\Users\ACT-STUDENT\Desktop\EVDRVv2\EVDRV\bin\Debug\SavedPhoto\John.png</t>
-  </si>
-  <si>
-    <t>Sam</t>
-  </si>
-  <si>
-    <t>Remove Aerol in active list</t>
-  </si>
-  <si>
-    <t>Remove Aerain in active list</t>
-  </si>
-  <si>
-    <t>Kayne</t>
-  </si>
-  <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>Aezues@gmail.com</t>
-  </si>
-  <si>
     <t>White</t>
   </si>
   <si>
-    <t>John@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Online-Games Volleyball </t>
-  </si>
-  <si>
     <t>Remove Sam in active list</t>
   </si>
   <si>
@@ -229,6 +229,72 @@
   </si>
   <si>
     <t>Remove Marie in inactive list</t>
+  </si>
+  <si>
+    <t>Remove Sam in inactive list</t>
+  </si>
+  <si>
+    <t>Vaness Marie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basketball Volleyball </t>
+  </si>
+  <si>
+    <t>das@gmail.com</t>
+  </si>
+  <si>
+    <t>Eys</t>
+  </si>
+  <si>
+    <t>dasdasd</t>
+  </si>
+  <si>
+    <t>asdasd@gmail.com</t>
+  </si>
+  <si>
+    <t>ASDASD</t>
+  </si>
+  <si>
+    <t>ASDASDAD</t>
+  </si>
+  <si>
+    <t>ASDA@gmail.com</t>
+  </si>
+  <si>
+    <t>Msdasd</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>asdasd</t>
+  </si>
+  <si>
+    <t>ADAS@gmail.com</t>
+  </si>
+  <si>
+    <t>dadasd</t>
+  </si>
+  <si>
+    <t>asdas</t>
+  </si>
+  <si>
+    <t>asdasd1</t>
+  </si>
+  <si>
+    <t>Allosada@gmail.com</t>
+  </si>
+  <si>
+    <t>adasd</t>
+  </si>
+  <si>
+    <t>asdasdasda</t>
+  </si>
+  <si>
+    <t>dasd@gmail.com</t>
+  </si>
+  <si>
+    <t>daasd</t>
   </si>
 </sst>
 </file>
@@ -283,7 +349,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4263">
+  <cellStyleXfs count="5887">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment/>
       <protection/>
@@ -4549,11 +4615,1635 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4262"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5886"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -4566,7 +6256,7 @@
     <cellStyle name="Currency [0]" xfId="17"/>
     <cellStyle name="Comma" xfId="18"/>
     <cellStyle name="Comma [0]" xfId="19"/>
-    <cellStyle name="Hyperlink" xfId="4262"/>
+    <cellStyle name="Hyperlink" xfId="5886"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -4965,7 +6655,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF8AC9C-8B54-4677-8D6C-087C914D916F}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection activeCell="G5" sqref="G5"/>
@@ -5054,16 +6744,16 @@
     </row>
     <row r="3" spans="1:12" ht="15.75">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
@@ -5072,36 +6762,36 @@
         <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
         <v>19</v>
@@ -5110,171 +6800,399 @@
         <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
         <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="F5" t="s">
         <v>29</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
         <v>59</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-      <c r="I5" t="s">
-        <v>52</v>
-      </c>
-      <c r="J5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="F6" t="s">
         <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="H6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="J6" t="s">
         <v>31</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
       </c>
       <c r="G7" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="H7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="J7" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="F8" t="s">
         <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" t="s">
+        <v>83</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75">
+      <c r="A9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" t="s">
+        <v>90</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
         <v>20</v>
       </c>
-      <c r="I8" t="s">
-        <v>57</v>
-      </c>
-      <c r="J8" t="s">
-        <v>36</v>
-      </c>
-      <c r="K8">
+      <c r="G11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11">
         <v>0</v>
       </c>
-      <c r="L8" t="s">
-        <v>43</v>
+      <c r="I11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13">
+        <v>20</v>
+      </c>
+      <c r="I13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.75">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14">
+        <v>20</v>
+      </c>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -5289,7 +7207,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A536246-8034-4587-8BBA-7487EF9B1490}">
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D110"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection activeCell="A2" sqref="A2"/>
@@ -6521,6 +8439,328 @@
         <v>45784.3487847222</v>
       </c>
     </row>
+    <row r="88" spans="1:4" ht="15.75">
+      <c r="A88" t="s">
+        <v>14</v>
+      </c>
+      <c r="B88" t="s">
+        <v>40</v>
+      </c>
+      <c r="C88" s="5">
+        <v>45784</v>
+      </c>
+      <c r="D88" s="4">
+        <v>45784.3535648148</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="15.75">
+      <c r="A89" t="s">
+        <v>14</v>
+      </c>
+      <c r="B89" t="s">
+        <v>40</v>
+      </c>
+      <c r="C89" s="5">
+        <v>45784</v>
+      </c>
+      <c r="D89" s="4">
+        <v>45784.3547337963</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="15.75">
+      <c r="A90" t="s">
+        <v>14</v>
+      </c>
+      <c r="B90" t="s">
+        <v>56</v>
+      </c>
+      <c r="C90" s="5">
+        <v>45784</v>
+      </c>
+      <c r="D90" s="4">
+        <v>45784.3550694444</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="15.75">
+      <c r="A91" t="s">
+        <v>14</v>
+      </c>
+      <c r="B91" t="s">
+        <v>69</v>
+      </c>
+      <c r="C91" s="5">
+        <v>45784</v>
+      </c>
+      <c r="D91" s="4">
+        <v>45784.3559490741</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="15.75">
+      <c r="A92" t="s">
+        <v>14</v>
+      </c>
+      <c r="B92" t="s">
+        <v>48</v>
+      </c>
+      <c r="C92" s="5">
+        <v>45784</v>
+      </c>
+      <c r="D92" s="4">
+        <v>45784.3562384259</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="15.75">
+      <c r="A93" t="s">
+        <v>14</v>
+      </c>
+      <c r="B93" t="s">
+        <v>40</v>
+      </c>
+      <c r="C93" s="5">
+        <v>45784</v>
+      </c>
+      <c r="D93" s="4">
+        <v>45784.3573611111</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="15.75">
+      <c r="A94" t="s">
+        <v>14</v>
+      </c>
+      <c r="B94" t="s">
+        <v>47</v>
+      </c>
+      <c r="C94" s="5">
+        <v>45784</v>
+      </c>
+      <c r="D94" s="4">
+        <v>45784.3588657407</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="15.75">
+      <c r="A95" t="s">
+        <v>14</v>
+      </c>
+      <c r="B95" t="s">
+        <v>40</v>
+      </c>
+      <c r="C95" s="5">
+        <v>45784</v>
+      </c>
+      <c r="D95" s="4">
+        <v>45784.3595833333</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="15.75">
+      <c r="A96" t="s">
+        <v>14</v>
+      </c>
+      <c r="B96" t="s">
+        <v>47</v>
+      </c>
+      <c r="C96" s="5">
+        <v>45784</v>
+      </c>
+      <c r="D96" s="4">
+        <v>45784.3603703704</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="15.75">
+      <c r="A97" t="s">
+        <v>14</v>
+      </c>
+      <c r="B97" t="s">
+        <v>40</v>
+      </c>
+      <c r="C97" s="5">
+        <v>45784</v>
+      </c>
+      <c r="D97" s="4">
+        <v>45784.3624884259</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="15.75">
+      <c r="A98" t="s">
+        <v>14</v>
+      </c>
+      <c r="B98" t="s">
+        <v>47</v>
+      </c>
+      <c r="C98" s="5">
+        <v>45784</v>
+      </c>
+      <c r="D98" s="4">
+        <v>45784.3629513889</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="15.75">
+      <c r="A99" t="s">
+        <v>14</v>
+      </c>
+      <c r="B99" t="s">
+        <v>47</v>
+      </c>
+      <c r="C99" s="5">
+        <v>45784</v>
+      </c>
+      <c r="D99" s="4">
+        <v>45784.3629861111</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="15.75">
+      <c r="A100" t="s">
+        <v>14</v>
+      </c>
+      <c r="B100" t="s">
+        <v>47</v>
+      </c>
+      <c r="C100" s="5">
+        <v>45784</v>
+      </c>
+      <c r="D100" s="4">
+        <v>45784.3630208333</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="15.75">
+      <c r="A101" t="s">
+        <v>14</v>
+      </c>
+      <c r="B101" t="s">
+        <v>47</v>
+      </c>
+      <c r="C101" s="5">
+        <v>45784</v>
+      </c>
+      <c r="D101" s="4">
+        <v>45784.3630439815</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="15.75">
+      <c r="A102" t="s">
+        <v>14</v>
+      </c>
+      <c r="B102" t="s">
+        <v>47</v>
+      </c>
+      <c r="C102" s="5">
+        <v>45784</v>
+      </c>
+      <c r="D102" s="4">
+        <v>45784.3630902778</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="15.75">
+      <c r="A103" t="s">
+        <v>14</v>
+      </c>
+      <c r="B103" t="s">
+        <v>47</v>
+      </c>
+      <c r="C103" s="5">
+        <v>45784</v>
+      </c>
+      <c r="D103" s="4">
+        <v>45784.3631134259</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="15.75">
+      <c r="A104" t="s">
+        <v>14</v>
+      </c>
+      <c r="B104" t="s">
+        <v>40</v>
+      </c>
+      <c r="C104" s="5">
+        <v>45784</v>
+      </c>
+      <c r="D104" s="4">
+        <v>45784.3665277778</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="15.75">
+      <c r="A105" t="s">
+        <v>14</v>
+      </c>
+      <c r="B105" t="s">
+        <v>47</v>
+      </c>
+      <c r="C105" s="5">
+        <v>45784</v>
+      </c>
+      <c r="D105" s="4">
+        <v>45784.3670949074</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="15.75">
+      <c r="A106" t="s">
+        <v>14</v>
+      </c>
+      <c r="B106" t="s">
+        <v>40</v>
+      </c>
+      <c r="C106" s="5">
+        <v>45784</v>
+      </c>
+      <c r="D106" s="4">
+        <v>45784.368125</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="15.75">
+      <c r="A107" t="s">
+        <v>14</v>
+      </c>
+      <c r="B107" t="s">
+        <v>40</v>
+      </c>
+      <c r="C107" s="5">
+        <v>45784</v>
+      </c>
+      <c r="D107" s="4">
+        <v>45784.3697222222</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="15.75">
+      <c r="A108" t="s">
+        <v>14</v>
+      </c>
+      <c r="B108" t="s">
+        <v>47</v>
+      </c>
+      <c r="C108" s="5">
+        <v>45784</v>
+      </c>
+      <c r="D108" s="4">
+        <v>45784.3702893518</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="15.75">
+      <c r="A109" t="s">
+        <v>14</v>
+      </c>
+      <c r="B109" t="s">
+        <v>40</v>
+      </c>
+      <c r="C109" s="5">
+        <v>45784</v>
+      </c>
+      <c r="D109" s="4">
+        <v>45784.3724537037</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="15.75">
+      <c r="A110" t="s">
+        <v>14</v>
+      </c>
+      <c r="B110" t="s">
+        <v>47</v>
+      </c>
+      <c r="C110" s="5">
+        <v>45784</v>
+      </c>
+      <c r="D110" s="4">
+        <v>45784.3728819444</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6530,7 +8770,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C22A972E-C1C2-4FF8-B64E-3E093DBA2221}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
       <selection activeCell="B5" sqref="B5"/>
@@ -6598,6 +8838,66 @@
         <v>38160</v>
       </c>
     </row>
+    <row r="8" spans="1:2" ht="15.75">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2">
+        <v>37935</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2">
+        <v>45784</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75">
+      <c r="B10" s="2">
+        <v>45784</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75">
+      <c r="B11" s="2">
+        <v>45784</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75">
+      <c r="B12" s="2">
+        <v>45784</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75">
+      <c r="B13" s="2">
+        <v>45784</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2">
+        <v>45784</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>45785</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
+        <v>45784</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="95">
   <si>
     <t>NAME</t>
   </si>
@@ -126,10 +126,10 @@
     <t>John</t>
   </si>
   <si>
-    <t>Red</t>
+    <t>John@gmail.com</t>
   </si>
   <si>
-    <t>C:\Users\ACT-STUDENT\Desktop\EVDRVv2\EVDRV\bin\Debug\SavedPhoto\John.png</t>
+    <t>Aerol@gmail.com</t>
   </si>
   <si>
     <t>Rosales</t>
@@ -183,7 +183,7 @@
     <t>Aezues</t>
   </si>
   <si>
-    <t>Aezues@gmail.com</t>
+    <t>C:\Users\ACT-STUDENT\Source\Repos\Event-Driven-Programming---CRUD\EVDRV\bin\Debug\SavedPhoto\.png</t>
   </si>
   <si>
     <t>Sam</t>
@@ -198,7 +198,7 @@
     <t>Kayne</t>
   </si>
   <si>
-    <t>John@gmail.com</t>
+    <t>Aezues@gmail.com</t>
   </si>
   <si>
     <t>C:\Users\ACT-STUDENT\Source\Repos\Event-Driven-Programming---CRUD\EVDRV\bin\Debug\SavedPhoto\Marie.png</t>
@@ -207,7 +207,7 @@
     <t>Yellow</t>
   </si>
   <si>
-    <t>Aerol@gmail.com</t>
+    <t>Red</t>
   </si>
   <si>
     <t>White</t>
@@ -296,6 +296,18 @@
   <si>
     <t>daasd</t>
   </si>
+  <si>
+    <t>DASD@gmail.com</t>
+  </si>
+  <si>
+    <t>C:\Users\ACT-STUDENT\Desktop\EVDRVv2\EVDRV\bin\Debug\SavedPhoto\John.png</t>
+  </si>
+  <si>
+    <t>asdsad</t>
+  </si>
+  <si>
+    <t>BSCS</t>
+  </si>
 </sst>
 </file>
 
@@ -349,7 +361,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5887">
+  <cellStyleXfs count="6279">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment/>
       <protection/>
@@ -6239,11 +6251,403 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5886"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6278"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -6256,7 +6660,7 @@
     <cellStyle name="Currency [0]" xfId="17"/>
     <cellStyle name="Comma" xfId="18"/>
     <cellStyle name="Comma [0]" xfId="19"/>
-    <cellStyle name="Hyperlink" xfId="5886"/>
+    <cellStyle name="Hyperlink" xfId="6278"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -6655,7 +7059,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF8AC9C-8B54-4677-8D6C-087C914D916F}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection activeCell="G5" sqref="G5"/>
@@ -7010,63 +7414,60 @@
     </row>
     <row r="10" spans="1:12" ht="15.75">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="J10" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="G11" t="s">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -7075,27 +7476,24 @@
         <v>14</v>
       </c>
       <c r="J11" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11" t="s">
-        <v>59</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.75">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
         <v>19</v>
@@ -7104,13 +7502,13 @@
         <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="H12">
         <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J12" t="s">
         <v>31</v>
@@ -7118,48 +7516,51 @@
       <c r="K12">
         <v>0</v>
       </c>
+      <c r="L12" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="13" spans="1:12" ht="15.75">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
         <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
         <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="H13">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" t="s">
         <v>24</v>
-      </c>
-      <c r="J13" t="s">
-        <v>31</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
         <v>21</v>
@@ -7168,7 +7569,7 @@
         <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E14" t="s">
         <v>19</v>
@@ -7180,10 +7581,10 @@
         <v>58</v>
       </c>
       <c r="H14">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="J14" t="s">
         <v>31</v>
@@ -7191,8 +7592,97 @@
       <c r="K14">
         <v>0</v>
       </c>
-      <c r="L14" t="s">
+    </row>
+    <row r="15" spans="1:12" ht="15.75">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" t="s">
         <v>35</v>
+      </c>
+      <c r="H15">
+        <v>20</v>
+      </c>
+      <c r="I15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.75">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16">
+        <v>20</v>
+      </c>
+      <c r="I16" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15.75">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15.75">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -7207,7 +7697,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A536246-8034-4587-8BBA-7487EF9B1490}">
-  <dimension ref="A1:D110"/>
+  <dimension ref="A1:D116"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection activeCell="A2" sqref="A2"/>
@@ -8761,6 +9251,90 @@
         <v>45784.3728819444</v>
       </c>
     </row>
+    <row r="111" spans="1:4" ht="15.75">
+      <c r="A111" t="s">
+        <v>14</v>
+      </c>
+      <c r="B111" t="s">
+        <v>40</v>
+      </c>
+      <c r="C111" s="5">
+        <v>45784</v>
+      </c>
+      <c r="D111" s="4">
+        <v>45784.3867013889</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="15.75">
+      <c r="A112" t="s">
+        <v>14</v>
+      </c>
+      <c r="B112" t="s">
+        <v>47</v>
+      </c>
+      <c r="C112" s="5">
+        <v>45784</v>
+      </c>
+      <c r="D112" s="4">
+        <v>45784.3872569444</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="15.75">
+      <c r="A113" t="s">
+        <v>14</v>
+      </c>
+      <c r="B113" t="s">
+        <v>47</v>
+      </c>
+      <c r="C113" s="5">
+        <v>45784</v>
+      </c>
+      <c r="D113" s="4">
+        <v>45784.3874189815</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="15.75">
+      <c r="A114" t="s">
+        <v>14</v>
+      </c>
+      <c r="B114" t="s">
+        <v>40</v>
+      </c>
+      <c r="C114" s="5">
+        <v>45784</v>
+      </c>
+      <c r="D114" s="4">
+        <v>45784.3888541667</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="15.75">
+      <c r="A115" t="s">
+        <v>14</v>
+      </c>
+      <c r="B115" t="s">
+        <v>47</v>
+      </c>
+      <c r="C115" s="5">
+        <v>45784</v>
+      </c>
+      <c r="D115" s="4">
+        <v>45784.3895138889</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="15.75">
+      <c r="A116" t="s">
+        <v>14</v>
+      </c>
+      <c r="B116" t="s">
+        <v>47</v>
+      </c>
+      <c r="C116" s="5">
+        <v>45784</v>
+      </c>
+      <c r="D116" s="4">
+        <v>45784.3896412037</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8770,7 +9344,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C22A972E-C1C2-4FF8-B64E-3E093DBA2221}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
       <selection activeCell="B5" sqref="B5"/>
@@ -8898,6 +9472,22 @@
         <v>45784</v>
       </c>
     </row>
+    <row r="17" spans="1:2" ht="15.75">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2">
+        <v>45784</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="2">
+        <v>45784</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -160,7 +160,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="273">
+  <cellStyleXfs count="441">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment/>
       <protection/>
@@ -184,6 +184,174 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -452,7 +620,7 @@
     <cellStyle name="Currency [0]" xfId="17"/>
     <cellStyle name="Comma" xfId="18"/>
     <cellStyle name="Comma [0]" xfId="19"/>
-    <cellStyle name="Hyperlink" xfId="272"/>
+    <cellStyle name="Hyperlink" xfId="440"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -160,7 +160,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="441">
+  <cellStyleXfs count="525">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment/>
       <protection/>
@@ -184,6 +184,90 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -620,7 +704,7 @@
     <cellStyle name="Currency [0]" xfId="17"/>
     <cellStyle name="Comma" xfId="18"/>
     <cellStyle name="Comma [0]" xfId="19"/>
-    <cellStyle name="Hyperlink" xfId="440"/>
+    <cellStyle name="Hyperlink" xfId="524"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -160,7 +160,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="525">
+  <cellStyleXfs count="1267">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment/>
       <protection/>
@@ -184,6 +184,748 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -704,7 +1446,7 @@
     <cellStyle name="Currency [0]" xfId="17"/>
     <cellStyle name="Comma" xfId="18"/>
     <cellStyle name="Comma [0]" xfId="19"/>
-    <cellStyle name="Hyperlink" xfId="524"/>
+    <cellStyle name="Hyperlink" xfId="1266"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
   <si>
     <t>NAME</t>
   </si>
@@ -78,24 +78,24 @@
     <t>Nothing</t>
   </si>
   <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Pink</t>
+  </si>
+  <si>
+    <t>Aerol</t>
+  </si>
+  <si>
+    <t>AGE</t>
+  </si>
+  <si>
+    <t>BIRTHDATE</t>
+  </si>
+  <si>
     <t>BSNursing</t>
   </si>
   <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Aerol</t>
-  </si>
-  <si>
-    <t>AGE</t>
-  </si>
-  <si>
-    <t>BIRTHDATE</t>
-  </si>
-  <si>
-    <t>Pink</t>
-  </si>
-  <si>
     <t>Vaness@gmail.com</t>
   </si>
   <si>
@@ -106,6 +106,45 @@
   </si>
   <si>
     <t>Has been log out</t>
+  </si>
+  <si>
+    <t>Vaness</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>BSCS</t>
+  </si>
+  <si>
+    <t>Marie1</t>
+  </si>
+  <si>
+    <t>Vaness Aerol</t>
+  </si>
+  <si>
+    <t>Inserting a data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basketball Volleyball </t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>adasd</t>
+  </si>
+  <si>
+    <t>BSIT</t>
+  </si>
+  <si>
+    <t>DASD@gmail.com</t>
+  </si>
+  <si>
+    <t>Remove Aerol in active list</t>
   </si>
 </sst>
 </file>
@@ -160,7 +199,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1267">
+  <cellStyleXfs count="1001">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment/>
       <protection/>
@@ -184,272 +223,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1446,7 +1219,7 @@
     <cellStyle name="Currency [0]" xfId="17"/>
     <cellStyle name="Comma" xfId="18"/>
     <cellStyle name="Comma [0]" xfId="19"/>
-    <cellStyle name="Hyperlink" xfId="1266"/>
+    <cellStyle name="Hyperlink" xfId="1000"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1845,10 +1618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF8AC9C-8B54-4677-8D6C-087C914D916F}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultColWidthPt="54" defaultRowHeight="15.75"/>
@@ -1896,39 +1669,109 @@
     </row>
     <row r="2" spans="1:12" ht="15.75">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
         <v>24</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="J2" t="s">
         <v>20</v>
       </c>
       <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3">
         <v>0</v>
       </c>
-      <c r="L2" t="s">
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3">
+        <v>123</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1941,7 +1784,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A536246-8034-4587-8BBA-7487EF9B1490}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection activeCell="B3" sqref="B3"/>
@@ -1997,6 +1840,48 @@
         <v>45784.4062847222</v>
       </c>
     </row>
+    <row r="4" spans="1:4" ht="15.75">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="4">
+        <v>45785</v>
+      </c>
+      <c r="D4" s="3">
+        <v>45785.3928935185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="4">
+        <v>45785</v>
+      </c>
+      <c r="D5" s="3">
+        <v>45785.3934606481</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="4">
+        <v>45785</v>
+      </c>
+      <c r="D6" s="3">
+        <v>45785.3963078704</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2006,7 +1891,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C22A972E-C1C2-4FF8-B64E-3E093DBA2221}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection activeCell="C6" sqref="C6"/>
@@ -2026,6 +1911,22 @@
         <v>22</v>
       </c>
     </row>
+    <row r="2" spans="1:2" ht="15.75">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="1">
+        <v>37935</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45785</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="43">
   <si>
     <t>NAME</t>
   </si>
@@ -108,7 +108,7 @@
     <t>Has been log out</t>
   </si>
   <si>
-    <t>Vaness</t>
+    <t>Vaness Marie</t>
   </si>
   <si>
     <t>Female</t>
@@ -145,6 +145,12 @@
   </si>
   <si>
     <t>Remove Aerol in active list</t>
+  </si>
+  <si>
+    <t>C:\Users\ACT-STUDENT\Source\Repos\Event-Driven-Programming---CRUD\EVDRV\bin\Debug\SavedPhoto\Marie1.png</t>
+  </si>
+  <si>
+    <t>Updating a data</t>
   </si>
 </sst>
 </file>
@@ -199,7 +205,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1001">
+  <cellStyleXfs count="2443">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment/>
       <protection/>
@@ -223,6 +229,1448 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1219,7 +2667,7 @@
     <cellStyle name="Currency [0]" xfId="17"/>
     <cellStyle name="Comma" xfId="18"/>
     <cellStyle name="Comma [0]" xfId="19"/>
-    <cellStyle name="Hyperlink" xfId="1000"/>
+    <cellStyle name="Hyperlink" xfId="2442"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1701,6 +3149,9 @@
       <c r="K2">
         <v>1</v>
       </c>
+      <c r="L2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="3" spans="1:12" ht="15.75">
       <c r="A3" t="s">
@@ -1784,7 +3235,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A536246-8034-4587-8BBA-7487EF9B1490}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection activeCell="B3" sqref="B3"/>
@@ -1880,6 +3331,146 @@
       </c>
       <c r="D6" s="3">
         <v>45785.3963078704</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="4">
+        <v>45785</v>
+      </c>
+      <c r="D7" s="3">
+        <v>45785.4845023148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="4">
+        <v>45785</v>
+      </c>
+      <c r="D8" s="3">
+        <v>45785.4853472222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="4">
+        <v>45785</v>
+      </c>
+      <c r="D9" s="3">
+        <v>45785.4869444444</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="4">
+        <v>45785</v>
+      </c>
+      <c r="D10" s="3">
+        <v>45785.4873958333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="4">
+        <v>45785</v>
+      </c>
+      <c r="D11" s="3">
+        <v>45785.4874884259</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="4">
+        <v>45785</v>
+      </c>
+      <c r="D12" s="3">
+        <v>45785.4876273148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="4">
+        <v>45785</v>
+      </c>
+      <c r="D13" s="3">
+        <v>45785.4879513889</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="4">
+        <v>45785</v>
+      </c>
+      <c r="D14" s="3">
+        <v>45785.4929861111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="4">
+        <v>45785</v>
+      </c>
+      <c r="D15" s="3">
+        <v>45785.4935763889</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="4">
+        <v>45785</v>
+      </c>
+      <c r="D16" s="3">
+        <v>45785.4968402778</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="65416" yWindow="65416" windowWidth="29040" windowHeight="15990" activeTab="0"/>
+    <workbookView xWindow="65416" yWindow="65416" windowWidth="29040" windowHeight="15990" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="43">
   <si>
     <t>NAME</t>
   </si>
@@ -205,7 +205,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2443">
+  <cellStyleXfs count="1057">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment/>
       <protection/>
@@ -229,1392 +229,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2667,7 +1281,7 @@
     <cellStyle name="Currency [0]" xfId="17"/>
     <cellStyle name="Comma" xfId="18"/>
     <cellStyle name="Comma [0]" xfId="19"/>
-    <cellStyle name="Hyperlink" xfId="2442"/>
+    <cellStyle name="Hyperlink" xfId="1056"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -3066,10 +1680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF8AC9C-8B54-4677-8D6C-087C914D916F}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultColWidthPt="54" defaultRowHeight="15.75"/>
@@ -3226,6 +1840,41 @@
         <v>25</v>
       </c>
     </row>
+    <row r="5" spans="1:12" ht="15.75">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75">
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75">
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75">
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75">
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75">
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75">
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3235,10 +1884,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A536246-8034-4587-8BBA-7487EF9B1490}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultColWidthPt="54" defaultRowHeight="15.75"/>
@@ -3473,6 +2122,174 @@
         <v>45785.4968402778</v>
       </c>
     </row>
+    <row r="17" spans="1:4" ht="15.75">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="4">
+        <v>45786</v>
+      </c>
+      <c r="D17" s="3">
+        <v>45786.4042708333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="4">
+        <v>45786</v>
+      </c>
+      <c r="D18" s="3">
+        <v>45786.4047685185</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="4">
+        <v>45786</v>
+      </c>
+      <c r="D19" s="3">
+        <v>45786.4056712963</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="4">
+        <v>45786</v>
+      </c>
+      <c r="D20" s="3">
+        <v>45786.4066435185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="4">
+        <v>45786</v>
+      </c>
+      <c r="D21" s="3">
+        <v>45786.4069328704</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="4">
+        <v>45786</v>
+      </c>
+      <c r="D22" s="3">
+        <v>45786.4680324074</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="4">
+        <v>45786</v>
+      </c>
+      <c r="D23" s="3">
+        <v>45786.4698726852</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="4">
+        <v>45786</v>
+      </c>
+      <c r="D24" s="3">
+        <v>45786.4699421296</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="4">
+        <v>45786</v>
+      </c>
+      <c r="D25" s="3">
+        <v>45786.4700925926</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="4">
+        <v>45786</v>
+      </c>
+      <c r="D26" s="3">
+        <v>45786.4731134259</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="4">
+        <v>45786</v>
+      </c>
+      <c r="D27" s="3">
+        <v>45786.4734490741</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="4">
+        <v>45786</v>
+      </c>
+      <c r="D28" s="3">
+        <v>45786.4761921296</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3482,9 +2299,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C22A972E-C1C2-4FF8-B64E-3E093DBA2221}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -3518,6 +2335,41 @@
         <v>45785</v>
       </c>
     </row>
+    <row r="4" ht="15.75">
+      <c r="B4" s="1">
+        <v>45786</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75">
+      <c r="B5" s="1">
+        <v>45786</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75">
+      <c r="B6" s="1">
+        <v>45786</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75">
+      <c r="B7" s="1">
+        <v>45786</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75">
+      <c r="B8" s="1">
+        <v>45786</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75">
+      <c r="B9" s="1">
+        <v>45786</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75">
+      <c r="B10" s="1">
+        <v>45786</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="44">
   <si>
     <t>NAME</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>Updating a data</t>
+  </si>
+  <si>
+    <t>Remove Aerol in inactive list</t>
   </si>
 </sst>
 </file>
@@ -205,7 +208,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1057">
+  <cellStyleXfs count="1897">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment/>
       <protection/>
@@ -229,6 +232,846 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1281,7 +2124,7 @@
     <cellStyle name="Currency [0]" xfId="17"/>
     <cellStyle name="Comma" xfId="18"/>
     <cellStyle name="Comma [0]" xfId="19"/>
-    <cellStyle name="Hyperlink" xfId="1056"/>
+    <cellStyle name="Hyperlink" xfId="1896"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1884,7 +2727,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A536246-8034-4587-8BBA-7487EF9B1490}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection activeCell="C1" sqref="C1:C1048576"/>
@@ -2288,6 +3131,90 @@
       </c>
       <c r="D28" s="3">
         <v>45786.4761921296</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="4">
+        <v>45786</v>
+      </c>
+      <c r="D29" s="3">
+        <v>45786.4815856481</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="4">
+        <v>45786</v>
+      </c>
+      <c r="D30" s="3">
+        <v>45786.4818865741</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="4">
+        <v>45786</v>
+      </c>
+      <c r="D31" s="3">
+        <v>45786.482025463</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="4">
+        <v>45786</v>
+      </c>
+      <c r="D32" s="3">
+        <v>45786.4846412037</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75">
+      <c r="A33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="4">
+        <v>45786</v>
+      </c>
+      <c r="D33" s="3">
+        <v>45786.4908680556</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75">
+      <c r="A34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="4">
+        <v>45786</v>
+      </c>
+      <c r="D34" s="3">
+        <v>45786.4929050926</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="44">
   <si>
     <t>NAME</t>
   </si>
@@ -208,7 +208,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1897">
+  <cellStyleXfs count="2289">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment/>
       <protection/>
@@ -232,6 +232,398 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2124,7 +2516,7 @@
     <cellStyle name="Currency [0]" xfId="17"/>
     <cellStyle name="Comma" xfId="18"/>
     <cellStyle name="Comma [0]" xfId="19"/>
-    <cellStyle name="Hyperlink" xfId="1896"/>
+    <cellStyle name="Hyperlink" xfId="2288"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2727,7 +3119,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A536246-8034-4587-8BBA-7487EF9B1490}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection activeCell="C1" sqref="C1:C1048576"/>
@@ -3215,6 +3607,48 @@
       </c>
       <c r="D34" s="3">
         <v>45786.4929050926</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75">
+      <c r="A35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="4">
+        <v>45786</v>
+      </c>
+      <c r="D35" s="3">
+        <v>45786.4950810185</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75">
+      <c r="A36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="4">
+        <v>45786</v>
+      </c>
+      <c r="D36" s="3">
+        <v>45786.4957407407</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75">
+      <c r="A37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="4">
+        <v>45786</v>
+      </c>
+      <c r="D37" s="3">
+        <v>45786.4963425926</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="65416" yWindow="65416" windowWidth="29040" windowHeight="15990" activeTab="2"/>
+    <workbookView xWindow="65416" yWindow="65416" windowWidth="20730" windowHeight="11160" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
   <si>
     <t>NAME</t>
   </si>
@@ -99,15 +99,6 @@
     <t>Vaness@gmail.com</t>
   </si>
   <si>
-    <t>C:\Users\ACT-STUDENT\Source\Repos\Event-Driven-Programming---CRUD\EVDRV\bin\Debug\SavedPhoto\Marie.png</t>
-  </si>
-  <si>
-    <t>Has been log in</t>
-  </si>
-  <si>
-    <t>Has been log out</t>
-  </si>
-  <si>
     <t>Vaness Marie</t>
   </si>
   <si>
@@ -123,37 +114,25 @@
     <t>Marie1</t>
   </si>
   <si>
+    <t xml:space="preserve">Basketball Volleyball </t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>adasd</t>
+  </si>
+  <si>
+    <t>BSIT</t>
+  </si>
+  <si>
+    <t>DASD@gmail.com</t>
+  </si>
+  <si>
     <t>Vaness Aerol</t>
   </si>
   <si>
-    <t>Inserting a data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Basketball Volleyball </t>
-  </si>
-  <si>
-    <t>White</t>
-  </si>
-  <si>
-    <t>adasd</t>
-  </si>
-  <si>
-    <t>BSIT</t>
-  </si>
-  <si>
-    <t>DASD@gmail.com</t>
-  </si>
-  <si>
-    <t>Remove Aerol in active list</t>
-  </si>
-  <si>
-    <t>C:\Users\ACT-STUDENT\Source\Repos\Event-Driven-Programming---CRUD\EVDRV\bin\Debug\SavedPhoto\Marie1.png</t>
-  </si>
-  <si>
     <t>Updating a data</t>
-  </si>
-  <si>
-    <t>Remove Aerol in inactive list</t>
   </si>
 </sst>
 </file>
@@ -161,13 +140,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
-    <numFmt numFmtId="164" formatCode="_-&quot;₱&quot;* #,##0_-;\-&quot;₱&quot;* #,##0_-;_-&quot;₱&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-&quot;₱&quot;* #,##0.00_-;\-&quot;₱&quot;* #,##0.00_-;_-&quot;₱&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
-    <numFmt numFmtId="169" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
-    <numFmt numFmtId="170" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;₱&quot;* #,##0_-;\-&quot;₱&quot;* #,##0_-;_-&quot;₱&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;₱&quot;* #,##0.00_-;\-&quot;₱&quot;* #,##0.00_-;_-&quot;₱&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -208,7 +187,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2289">
+  <cellStyleXfs count="1113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment/>
       <protection/>
@@ -228,1186 +207,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2505,9 +1308,9 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0"/>
@@ -2516,7 +1319,7 @@
     <cellStyle name="Currency [0]" xfId="17"/>
     <cellStyle name="Comma" xfId="18"/>
     <cellStyle name="Comma [0]" xfId="19"/>
-    <cellStyle name="Hyperlink" xfId="2288"/>
+    <cellStyle name="Hyperlink" xfId="1112"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2915,15 +1718,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF8AC9C-8B54-4677-8D6C-087C914D916F}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
+      <selection activeCell="L2" sqref="L2:L4"/>
     </sheetView>
   </sheetViews>
   <she